--- a/build2.7_260119/results/2.7b_idc4_pattern_results(weight=1).xlsx
+++ b/build2.7_260119/results/2.7b_idc4_pattern_results(weight=1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0a89b0b6314c61c/MAFF_2025/workspace simul/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="393" documentId="8_{4F157548-F5C8-4AB3-86AB-FA41C853EA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5CF0CD8-C5C3-4D5A-8B0C-C367CC16C67D}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{375D5D6D-E0A8-49CC-A9E5-35DAB110FB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C012C5F-7E19-44F1-9BEE-F09CF423A744}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="7" xr2:uid="{7135906F-35E3-4CBC-AC94-7A1C9517FCF4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{EEB38FB1-1AE8-4272-B00A-6ACAFF3F14B2}"/>
   </bookViews>
   <sheets>
     <sheet name="pcroprep" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="pradar" sheetId="5" r:id="rId5"/>
     <sheet name="plandrep" sheetId="6" r:id="rId6"/>
     <sheet name="plaborrep" sheetId="7" r:id="rId7"/>
-    <sheet name="pfertrep" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="87">
   <si>
     <t>potato</t>
   </si>
@@ -201,6 +200,12 @@
     <t>other</t>
   </si>
   <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>egg_dairy</t>
+  </si>
+  <si>
     <t>Hokkaido</t>
   </si>
   <si>
@@ -228,6 +233,57 @@
     <t>rapeseed</t>
   </si>
   <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>aug</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>oct</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>paddy_wet</t>
+  </si>
+  <si>
+    <t>paddy_dry</t>
+  </si>
+  <si>
+    <t>field_rain</t>
+  </si>
+  <si>
+    <t>field_irr</t>
+  </si>
+  <si>
+    <t>orchard</t>
+  </si>
+  <si>
     <t>dairycow</t>
   </si>
   <si>
@@ -247,72 +303,6 @@
   </si>
   <si>
     <t>layinghens</t>
-  </si>
-  <si>
-    <t>nitrogen</t>
-  </si>
-  <si>
-    <t>phosphate</t>
-  </si>
-  <si>
-    <t>kalium</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>egg_dairy</t>
-  </si>
-  <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>feb</t>
-  </si>
-  <si>
-    <t>mar</t>
-  </si>
-  <si>
-    <t>apr</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>jun</t>
-  </si>
-  <si>
-    <t>jul</t>
-  </si>
-  <si>
-    <t>aug</t>
-  </si>
-  <si>
-    <t>sep</t>
-  </si>
-  <si>
-    <t>oct</t>
-  </si>
-  <si>
-    <t>nov</t>
-  </si>
-  <si>
-    <t>dec</t>
-  </si>
-  <si>
-    <t>paddy_wet</t>
-  </si>
-  <si>
-    <t>paddy_dry</t>
-  </si>
-  <si>
-    <t>field_rain</t>
-  </si>
-  <si>
-    <t>field_irr</t>
-  </si>
-  <si>
-    <t>orchard</t>
   </si>
 </sst>
 </file>
@@ -698,7 +688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C6947B-C333-4587-BEC2-2BAF8A1ADE87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DF7DA1-42C1-4EE6-95B2-0F07ED22F39A}">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1529,7 +1519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AC68EF-3B9E-4693-A9C9-C53B5EBE3FAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB51AB0-1623-46BC-B320-085AD2B91AAE}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1852,7 +1842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5503E8-6E44-49C8-9A56-00A2150AA01B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DBE1DE-0F04-4981-83FB-5BE861D5A317}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2147,7 +2137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DF4BEE-E61D-406E-B076-7F8943854855}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A49A80-62AA-4FAD-8ABB-D2ED22ADCF50}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2362,7 +2352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C15A44D-015A-4972-93E4-A3BA26E53BC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F667FF-C24F-4117-A1FF-A608611C713A}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2704,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>-91.057901603124634</v>
@@ -2724,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>-133.64580537410521</v>
@@ -2744,7 +2734,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>-90.221676387036212</v>
@@ -2764,7 +2754,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>-73.157968064003512</v>
@@ -2786,7 +2776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22A2295-3902-479E-8E6A-E16B1DF92518}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1663A4-085E-49D3-B429-E4526ECDE41A}">
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2813,10 +2803,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -2858,13 +2848,13 @@
         <v>18</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>19</v>
@@ -2875,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>70.251835</v>
@@ -2901,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>861.03700000000003</v>
@@ -2924,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>718.93300899999986</v>
@@ -2956,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>0.38930300000000001</v>
@@ -3029,7 +3019,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>221.596</v>
@@ -3055,7 +3045,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>861.03700000000003</v>
@@ -3081,7 +3071,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>1258.4840000000002</v>
@@ -3113,7 +3103,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>0.751</v>
@@ -3254,76 +3244,76 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AA15" s="1" t="s">
         <v>19</v>
@@ -3364,10 +3354,10 @@
         <v>11</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>19</v>
@@ -3385,7 +3375,7 @@
         <v>11</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>19</v>
@@ -3411,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F17">
         <v>539.91268800000023</v>
@@ -3452,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F18">
         <v>539.91268800000023</v>
@@ -3499,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F19">
         <v>539.91268800000023</v>
@@ -3546,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F20">
         <v>539.91268800000023</v>
@@ -3596,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F21">
         <v>539.91268800000023</v>
@@ -3649,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>1226.3071339999997</v>
@@ -3717,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>1226.3071339999997</v>
@@ -3785,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C24">
         <v>1226.3071339999997</v>
@@ -3853,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C25">
         <v>1226.3071339999997</v>
@@ -3921,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C26">
         <v>1156.0552989999999</v>
@@ -3989,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F27">
         <v>539.91268800000023</v>
@@ -4030,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F28">
         <v>539.91268800000023</v>
@@ -4071,7 +4061,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F29">
         <v>539.91268800000023</v>
@@ -4118,7 +4108,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F30">
         <v>539.91268800000023</v>
@@ -4165,7 +4155,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F31">
         <v>539.91268800000023</v>
@@ -4212,7 +4202,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F32">
         <v>539.91268800000023</v>
@@ -4259,7 +4249,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F33">
         <v>539.91268800000023</v>
@@ -4315,7 +4305,7 @@
         <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C34">
         <v>1226.3071339999997</v>
@@ -4374,7 +4364,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C35">
         <v>1226.3071339999997</v>
@@ -4433,7 +4423,7 @@
         <v>20</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C36">
         <v>1226.3071339999997</v>
@@ -4489,7 +4479,7 @@
         <v>20</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C37">
         <v>1226.3071339999997</v>
@@ -4548,7 +4538,7 @@
         <v>20</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C38">
         <v>1156.0552989999999</v>
@@ -4607,7 +4597,7 @@
         <v>20</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F39">
         <v>539.91268800000023</v>
@@ -4654,7 +4644,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F40">
         <v>539.91268800000023</v>
@@ -4703,10 +4693,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED3CB3C-F90A-4AA7-A7D1-EC5708A7D5D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A587DC44-B5D5-4E2E-8A0E-F2B6620CC5D9}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -4730,10 +4720,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -4775,34 +4765,34 @@
         <v>18</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>19</v>
@@ -5001,930 +4991,6 @@
       </c>
       <c r="AG4">
         <v>1.487366524719997</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CB992D-B671-4FA0-B020-F452F9CFDFE3}">
-  <dimension ref="A1:BX5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>125446.44717199996</v>
-      </c>
-      <c r="D3">
-        <v>55611.006864000025</v>
-      </c>
-      <c r="K3">
-        <v>27709.548999999999</v>
-      </c>
-      <c r="L3">
-        <v>26455.721712000006</v>
-      </c>
-      <c r="M3">
-        <v>52234</v>
-      </c>
-      <c r="N3">
-        <v>13772.319015000001</v>
-      </c>
-      <c r="S3">
-        <v>285197.58416484745</v>
-      </c>
-      <c r="T3">
-        <v>7891.6</v>
-      </c>
-      <c r="U3">
-        <v>5019.3</v>
-      </c>
-      <c r="V3">
-        <v>8148.3280000000004</v>
-      </c>
-      <c r="W3">
-        <v>5103.9999999999991</v>
-      </c>
-      <c r="X3">
-        <v>8864</v>
-      </c>
-      <c r="Z3">
-        <v>621453.85592784744</v>
-      </c>
-      <c r="AA3">
-        <v>148555.00322999994</v>
-      </c>
-      <c r="AC3">
-        <v>66409.260624000031</v>
-      </c>
-      <c r="AJ3">
-        <v>54288.095999999998</v>
-      </c>
-      <c r="AK3">
-        <v>51831.618048000011</v>
-      </c>
-      <c r="AL3">
-        <v>110208</v>
-      </c>
-      <c r="AM3">
-        <v>29058.079680000003</v>
-      </c>
-      <c r="AR3">
-        <v>171118.55049890844</v>
-      </c>
-      <c r="AS3">
-        <v>4850.8</v>
-      </c>
-      <c r="AT3">
-        <v>1719.9</v>
-      </c>
-      <c r="AU3">
-        <v>6916.6040000000003</v>
-      </c>
-      <c r="AV3">
-        <v>2087.9999999999995</v>
-      </c>
-      <c r="AW3">
-        <v>13850</v>
-      </c>
-      <c r="AY3">
-        <v>660893.91208090854</v>
-      </c>
-      <c r="AZ3">
-        <v>158458.67011199993</v>
-      </c>
-      <c r="BB3">
-        <v>50751.792672000025</v>
-      </c>
-      <c r="BI3">
-        <v>83128.646999999997</v>
-      </c>
-      <c r="BJ3">
-        <v>79367.165136000011</v>
-      </c>
-      <c r="BK3">
-        <v>71176</v>
-      </c>
-      <c r="BL3">
-        <v>18766.676459999999</v>
-      </c>
-      <c r="BQ3">
-        <v>272752.5986740177</v>
-      </c>
-      <c r="BR3">
-        <v>5647.2000000000007</v>
-      </c>
-      <c r="BS3">
-        <v>2492.1</v>
-      </c>
-      <c r="BT3">
-        <v>7864.0840000000007</v>
-      </c>
-      <c r="BU3">
-        <v>1391.9999999999998</v>
-      </c>
-      <c r="BV3">
-        <v>8864</v>
-      </c>
-      <c r="BX3">
-        <v>760660.93405401765</v>
-      </c>
-    </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>177981.96799999996</v>
-      </c>
-      <c r="C4">
-        <v>92119.122614846914</v>
-      </c>
-      <c r="D4">
-        <v>55611.006864000025</v>
-      </c>
-      <c r="O4">
-        <v>34370.857932963154</v>
-      </c>
-      <c r="S4">
-        <v>220754.42344999997</v>
-      </c>
-      <c r="T4">
-        <v>7891.6</v>
-      </c>
-      <c r="U4">
-        <v>5019.3</v>
-      </c>
-      <c r="V4">
-        <v>8148.3280000000004</v>
-      </c>
-      <c r="W4">
-        <v>5103.9999999999991</v>
-      </c>
-      <c r="X4">
-        <v>8864</v>
-      </c>
-      <c r="Z4">
-        <v>615864.60686181008</v>
-      </c>
-      <c r="AA4">
-        <v>210768.11999999997</v>
-      </c>
-      <c r="AB4">
-        <v>110006.33088957447</v>
-      </c>
-      <c r="AC4">
-        <v>66409.260624000031</v>
-      </c>
-      <c r="AN4">
-        <v>93003.497936253232</v>
-      </c>
-      <c r="AR4">
-        <v>132452.65406999999</v>
-      </c>
-      <c r="AS4">
-        <v>4850.8</v>
-      </c>
-      <c r="AT4">
-        <v>1719.9</v>
-      </c>
-      <c r="AU4">
-        <v>6916.6040000000003</v>
-      </c>
-      <c r="AV4">
-        <v>2087.9999999999995</v>
-      </c>
-      <c r="AW4">
-        <v>13850</v>
-      </c>
-      <c r="AY4">
-        <v>642065.16751982772</v>
-      </c>
-      <c r="AZ4">
-        <v>224819.32799999995</v>
-      </c>
-      <c r="BA4">
-        <v>84069.878891219516</v>
-      </c>
-      <c r="BB4">
-        <v>50751.792672000025</v>
-      </c>
-      <c r="BM4">
-        <v>87948.960004935114</v>
-      </c>
-      <c r="BQ4">
-        <v>211121.50315399998</v>
-      </c>
-      <c r="BR4">
-        <v>5647.2000000000007</v>
-      </c>
-      <c r="BS4">
-        <v>2492.1</v>
-      </c>
-      <c r="BT4">
-        <v>7864.0840000000007</v>
-      </c>
-      <c r="BU4">
-        <v>1391.9999999999998</v>
-      </c>
-      <c r="BV4">
-        <v>8864</v>
-      </c>
-      <c r="BX4">
-        <v>684970.84672215453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5">
-        <v>118788</v>
-      </c>
-      <c r="C5">
-        <v>10238.200000000001</v>
-      </c>
-      <c r="D5">
-        <v>13173.7</v>
-      </c>
-      <c r="E5">
-        <v>406.71999999999997</v>
-      </c>
-      <c r="F5">
-        <v>4296.8</v>
-      </c>
-      <c r="G5">
-        <v>622.22</v>
-      </c>
-      <c r="H5">
-        <v>15.5</v>
-      </c>
-      <c r="I5">
-        <v>3.3090899999999999</v>
-      </c>
-      <c r="J5">
-        <v>1644.49325</v>
-      </c>
-      <c r="K5">
-        <v>1582.6999999999998</v>
-      </c>
-      <c r="L5">
-        <v>1582.6999999999998</v>
-      </c>
-      <c r="M5">
-        <v>6497.4000000000005</v>
-      </c>
-      <c r="N5">
-        <v>6497.4000000000005</v>
-      </c>
-      <c r="O5">
-        <v>1050.5999999999999</v>
-      </c>
-      <c r="P5">
-        <v>4103.8</v>
-      </c>
-      <c r="Q5">
-        <v>1411.6</v>
-      </c>
-      <c r="R5">
-        <v>27177.353999999999</v>
-      </c>
-      <c r="S5">
-        <v>70529.524999999994</v>
-      </c>
-      <c r="T5">
-        <v>7891.6</v>
-      </c>
-      <c r="U5">
-        <v>5019.3</v>
-      </c>
-      <c r="V5">
-        <v>8148.3280000000004</v>
-      </c>
-      <c r="W5">
-        <v>5104</v>
-      </c>
-      <c r="X5">
-        <v>8864</v>
-      </c>
-      <c r="Y5">
-        <v>87</v>
-      </c>
-      <c r="Z5">
-        <v>304736.24933999992</v>
-      </c>
-      <c r="AA5">
-        <v>140670</v>
-      </c>
-      <c r="AB5">
-        <v>12226.2</v>
-      </c>
-      <c r="AC5">
-        <v>15731.7</v>
-      </c>
-      <c r="AD5">
-        <v>491.04</v>
-      </c>
-      <c r="AE5">
-        <v>5187.5999999999995</v>
-      </c>
-      <c r="AF5">
-        <v>475.47</v>
-      </c>
-      <c r="AG5">
-        <v>17.7</v>
-      </c>
-      <c r="AH5">
-        <v>2.2060599999999999</v>
-      </c>
-      <c r="AI5">
-        <v>5459.7175900000002</v>
-      </c>
-      <c r="AJ5">
-        <v>3100.7999999999997</v>
-      </c>
-      <c r="AK5">
-        <v>3100.7999999999997</v>
-      </c>
-      <c r="AL5">
-        <v>13708.800000000001</v>
-      </c>
-      <c r="AM5">
-        <v>13708.800000000001</v>
-      </c>
-      <c r="AN5">
-        <v>2842.7999999999997</v>
-      </c>
-      <c r="AO5">
-        <v>11104.4</v>
-      </c>
-      <c r="AP5">
-        <v>6775.68</v>
-      </c>
-      <c r="AQ5">
-        <v>29906.004000000001</v>
-      </c>
-      <c r="AR5">
-        <v>42317.715000000004</v>
-      </c>
-      <c r="AS5">
-        <v>4850.8</v>
-      </c>
-      <c r="AT5">
-        <v>1719.9</v>
-      </c>
-      <c r="AU5">
-        <v>6916.6040000000003</v>
-      </c>
-      <c r="AV5">
-        <v>2088</v>
-      </c>
-      <c r="AW5">
-        <v>13850</v>
-      </c>
-      <c r="AX5">
-        <v>130.5</v>
-      </c>
-      <c r="AY5">
-        <v>336383.23664999998</v>
-      </c>
-      <c r="AZ5">
-        <v>150048</v>
-      </c>
-      <c r="BA5">
-        <v>9343.6</v>
-      </c>
-      <c r="BB5">
-        <v>12022.6</v>
-      </c>
-      <c r="BC5">
-        <v>491.04</v>
-      </c>
-      <c r="BD5">
-        <v>5187.5999999999995</v>
-      </c>
-      <c r="BE5">
-        <v>692.66</v>
-      </c>
-      <c r="BF5">
-        <v>11.9</v>
-      </c>
-      <c r="BG5">
-        <v>2.5989200000000001</v>
-      </c>
-      <c r="BH5">
-        <v>4604.5811000000003</v>
-      </c>
-      <c r="BI5">
-        <v>4748.0999999999995</v>
-      </c>
-      <c r="BJ5">
-        <v>4748.0999999999995</v>
-      </c>
-      <c r="BK5">
-        <v>8853.6</v>
-      </c>
-      <c r="BL5">
-        <v>8853.6</v>
-      </c>
-      <c r="BM5">
-        <v>2688.2999999999997</v>
-      </c>
-      <c r="BN5">
-        <v>10500.9</v>
-      </c>
-      <c r="BO5">
-        <v>2893.7799999999997</v>
-      </c>
-      <c r="BP5">
-        <v>27941.376</v>
-      </c>
-      <c r="BQ5">
-        <v>67451.873000000007</v>
-      </c>
-      <c r="BR5">
-        <v>5647.2000000000007</v>
-      </c>
-      <c r="BS5">
-        <v>2492.1</v>
-      </c>
-      <c r="BT5">
-        <v>7864.0840000000007</v>
-      </c>
-      <c r="BU5">
-        <v>1392</v>
-      </c>
-      <c r="BV5">
-        <v>8864</v>
-      </c>
-      <c r="BW5">
-        <v>130.5</v>
-      </c>
-      <c r="BX5">
-        <v>347474.09301999997</v>
       </c>
     </row>
   </sheetData>
